--- a/product.xlsx
+++ b/product.xlsx
@@ -61,8 +61,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <sz val="14.0"/>
+      <name val="Aptos Narrow"/>
+      <sz val="12.0"/>
       <b val="true"/>
       <color indexed="8"/>
     </font>
@@ -90,7 +90,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" indent="1" wrapText="false"/>
+      <alignment horizontal="left" indent="2" wrapText="false"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -103,6 +103,12 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="2" max="2" width="16.0" customWidth="true"/>
+    <col min="3" max="3" width="10.0" customWidth="true"/>
+    <col min="4" max="4" width="8.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">

--- a/product.xlsx
+++ b/product.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t/>
   </si>
@@ -29,10 +29,16 @@
     <t>date</t>
   </si>
   <si>
+    <t>List</t>
+  </si>
+  <si>
     <t>Orange Juice</t>
   </si>
   <si>
     <t>Fruit Drinkable</t>
+  </si>
+  <si>
+    <t>1;2;3;4;</t>
   </si>
   <si>
     <t>Coke</t>
@@ -41,10 +47,16 @@
     <t>Soft Drink</t>
   </si>
   <si>
+    <t>1;2;3;5;</t>
+  </si>
+  <si>
     <t>Mango</t>
   </si>
   <si>
     <t xml:space="preserve">Fruit </t>
+  </si>
+  <si>
+    <t>1;2;3;6;</t>
   </si>
 </sst>
 </file>
@@ -98,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108,6 +120,7 @@
     <col min="2" max="2" width="16.0" customWidth="true"/>
     <col min="3" max="3" width="10.0" customWidth="true"/>
     <col min="4" max="4" width="8.0" customWidth="true"/>
+    <col min="5" max="5" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -123,13 +136,16 @@
       <c r="D1" t="s" s="1">
         <v>4</v>
       </c>
+      <c r="E1" t="s" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>10.0</v>
@@ -137,13 +153,16 @@
       <c r="D2" t="n" s="0">
         <v>42282.0</v>
       </c>
+      <c r="E2" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>20.0</v>
@@ -151,13 +170,16 @@
       <c r="D3" t="n" s="0">
         <v>42282.0</v>
       </c>
+      <c r="E3" t="s" s="0">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>15.0</v>
@@ -165,6 +187,9 @@
       <c r="D4" t="n" s="0">
         <v>42282.0</v>
       </c>
+      <c r="E4" t="s" s="0">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/product.xlsx
+++ b/product.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t/>
   </si>
@@ -38,7 +38,7 @@
     <t>Fruit Drinkable</t>
   </si>
   <si>
-    <t>1;2;3;4;</t>
+    <t>ayush;deepanshu;aryan;sumit;</t>
   </si>
   <si>
     <t>Coke</t>
@@ -47,16 +47,10 @@
     <t>Soft Drink</t>
   </si>
   <si>
-    <t>1;2;3;5;</t>
-  </si>
-  <si>
     <t>Mango</t>
   </si>
   <si>
     <t xml:space="preserve">Fruit </t>
-  </si>
-  <si>
-    <t>1;2;3;6;</t>
   </si>
 </sst>
 </file>
@@ -171,15 +165,15 @@
         <v>42282.0</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>15.0</v>
@@ -188,7 +182,7 @@
         <v>42282.0</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t/>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>List</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
   <si>
     <t>Orange Juice</t>
@@ -104,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -115,6 +118,7 @@
     <col min="3" max="3" width="10.0" customWidth="true"/>
     <col min="4" max="4" width="8.0" customWidth="true"/>
     <col min="5" max="5" width="8.0" customWidth="true"/>
+    <col min="6" max="6" width="16.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,13 +137,16 @@
       <c r="E1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="F1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>10.0</v>
@@ -148,15 +155,18 @@
         <v>42282.0</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>20.0</v>
@@ -165,15 +175,18 @@
         <v>42282.0</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>15.0</v>
@@ -182,7 +195,10 @@
         <v>42282.0</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
